--- a/config_11.9/game_module_config.xlsx
+++ b/config_11.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1040">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4017,10 +4017,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_039</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_hghd_001</t>
   </si>
   <si>
@@ -4037,6 +4033,18 @@
   </si>
   <si>
     <t>sys_act_base_style/sys_act_base_weekly_040</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_zzpw</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊排位</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTZZPWManager</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -4702,13 +4710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I351"/>
+  <dimension ref="A1:I352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D336" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="I354" sqref="I354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12868,7 +12876,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C321" s="37" t="s">
         <v>934</v>
@@ -13227,7 +13235,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="36" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C335" s="56" t="s">
         <v>1002</v>
@@ -13612,10 +13620,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C350" s="59" t="s">
         <v>1033</v>
-      </c>
-      <c r="C350" s="59" t="s">
-        <v>1034</v>
       </c>
       <c r="D350" s="59"/>
       <c r="E350" s="5">
@@ -13628,7 +13636,7 @@
         <v>1</v>
       </c>
       <c r="I350" s="57" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -13655,6 +13663,32 @@
       </c>
       <c r="I351" s="57" t="s">
         <v>1031</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" s="5">
+        <v>351</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C352" s="59" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D352" s="59" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E352" s="5">
+        <v>1</v>
+      </c>
+      <c r="F352" s="5">
+        <v>1</v>
+      </c>
+      <c r="G352" s="5">
+        <v>1</v>
+      </c>
+      <c r="I352" s="57">
+        <v>44522</v>
       </c>
     </row>
   </sheetData>
